--- a/backend-end/src/temp/quote.xlsx
+++ b/backend-end/src/temp/quote.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>PICTURE</t>
   </si>
@@ -35,6 +35,50 @@
   </si>
   <si>
     <t>TOTAL PRICE</t>
+  </si>
+  <si>
+    <t>OK1224</t>
+  </si>
+  <si>
+    <t>RBK1224-160-O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050D 
+Nylon cloth, 
+No. 10 YKK zipper PP cotton + rubber particles</t>
+  </si>
+  <si>
+    <t>RBK1224-300-O</t>
+  </si>
+  <si>
+    <t>OK9100B</t>
+  </si>
+  <si>
+    <t>RBK9100B</t>
+  </si>
+  <si>
+    <t>Power Sled</t>
+  </si>
+  <si>
+    <t>OK1013</t>
+  </si>
+  <si>
+    <t>ACT1013-10</t>
+  </si>
+  <si>
+    <t>Rubber Hex Dumbbell 10</t>
+  </si>
+  <si>
+    <t>ACT1013-2.5</t>
+  </si>
+  <si>
+    <t>Rubber Hex Dumbbell 2.5</t>
+  </si>
+  <si>
+    <t>ACT1013-5</t>
+  </si>
+  <si>
+    <t>Rubber Hex Dumbbell 5</t>
   </si>
 </sst>
 </file>
@@ -88,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -108,6 +155,128 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="821493" cy="533400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="423420" cy="533400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="982410" cy="847725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -468,8 +637,152 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>80</v>
+      </c>
+      <c r="H2" s="2">
+        <f>F2*G2</f>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2">
+        <f>F3*G3</f>
+      </c>
+    </row>
+    <row r="4" ht="66" customHeight="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2">
+        <f>F4*G4</f>
+      </c>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>E5*F5*G5</f>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>E6*F6*G6</f>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>E7*F7*G7</f>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend-end/src/temp/quote.xlsx
+++ b/backend-end/src/temp/quote.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>PICTURE</t>
   </si>
@@ -37,14 +37,17 @@
     <t>TOTAL PRICE</t>
   </si>
   <si>
+    <t>成本</t>
+  </si>
+  <si>
     <t>OK1224</t>
   </si>
   <si>
     <t>RBK1224-160-O</t>
   </si>
   <si>
-    <t xml:space="preserve">1050D 
-Nylon cloth, 
+    <t xml:space="preserve">1050D
+Nylon cloth,
 No. 10 YKK zipper PP cotton + rubber particles</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0&quot;pc&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00&quot;/pc&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot;kg&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00&quot;/kg&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -132,12 +141,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -159,12 +180,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="821493" cy="533400"/>
     <xdr:pic>
@@ -198,12 +219,12 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="423420" cy="533400"/>
     <xdr:pic>
@@ -237,12 +258,12 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="982410" cy="847725"/>
     <xdr:pic>
@@ -601,17 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="25" customWidth="1"/>
+    <col min="7" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,142 +657,151 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>80</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="2">
         <f>F2*G2</f>
       </c>
+      <c r="I2" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>160</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="2">
         <f>F3*G3</f>
       </c>
+      <c r="I3" s="2">
+        <v>160</v>
+      </c>
     </row>
-    <row r="4" ht="66" customHeight="1" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="66" customHeight="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="2">
-        <v>73</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="2">
         <f>F4*G4</f>
       </c>
+      <c r="I4" s="2">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="2">
         <f>E5*F5*G5</f>
       </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="2">
         <f>E6*F6*G6</f>
       </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="2">
         <f>E7*F7*G7</f>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/backend-end/src/temp/quote.xlsx
+++ b/backend-end/src/temp/quote.xlsx
@@ -11,7 +11,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Nantong OK Sporting Co.,ltd</t>
+  </si>
+  <si>
+    <t>INVOICE NO:</t>
+  </si>
+  <si>
+    <t>2WAW9IYQSS8W</t>
+  </si>
+  <si>
+    <t>此列使用后需删除</t>
+  </si>
+  <si>
+    <t>REVISION:</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>INVOICE DATE:</t>
+  </si>
+  <si>
+    <t>2025/11/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tel: 0086-0513-81067596
+FAX: 0086-0513-81067595
+Add: 1114, A3 Office Building, Wanda Plaza, No. 8 Shennan Road, Gangzha District, Nantong City</t>
+  </si>
+  <si>
+    <t>TO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company: Gadolex SA
+Ad.: Isidoro de María 1727
+RUT: 215340610019
+Country : Uruguay
+City : Montevideo
+zip code :11800
+Tel: (598)29243689
+Alejandro Birnbaun Móvil:(598)99638757</t>
+  </si>
+  <si>
+    <t>ATTN:</t>
+  </si>
+  <si>
+    <t>QUOTE SHEET</t>
+  </si>
+  <si>
+    <t>TRADE TERM:</t>
+  </si>
+  <si>
+    <t>FOB Nantong ( Full container )</t>
+  </si>
+  <si>
+    <t>PAYMENT TERM:</t>
+  </si>
+  <si>
+    <t>30%+70%T/T</t>
+  </si>
+  <si>
+    <t>LOAD PORT:</t>
+  </si>
+  <si>
+    <t>Nantong, China</t>
+  </si>
+  <si>
+    <t>DESTINATION:</t>
+  </si>
+  <si>
+    <t>Montevideo Uruguay</t>
+  </si>
   <si>
     <t>PICTURE</t>
   </si>
@@ -34,10 +106,16 @@
     <t>UNIT PRICE</t>
   </si>
   <si>
-    <t>TOTAL PRICE</t>
-  </si>
-  <si>
-    <t>成本</t>
+    <t>TOTAL PRICE(USD)</t>
+  </si>
+  <si>
+    <t>TOTAL N.W.(KGS)</t>
+  </si>
+  <si>
+    <t>MEAS.(CBM)</t>
+  </si>
+  <si>
+    <t>成本(核算)</t>
   </si>
   <si>
     <t>OK1224</t>
@@ -46,14 +124,20 @@
     <t>RBK1224-160-O</t>
   </si>
   <si>
-    <t xml:space="preserve">1050D
-Nylon cloth,
+    <t xml:space="preserve">1050D 
+Nylon cloth, 
 No. 10 YKK zipper PP cotton + rubber particles</t>
   </si>
   <si>
+    <t>160*30cm</t>
+  </si>
+  <si>
     <t>RBK1224-300-O</t>
   </si>
   <si>
+    <t>300*30cm</t>
+  </si>
+  <si>
     <t>OK9100B</t>
   </si>
   <si>
@@ -61,6 +145,9 @@
   </si>
   <si>
     <t>Power Sled</t>
+  </si>
+  <si>
+    <t>Main tube :50*70*2mm</t>
   </si>
   <si>
     <t>OK1013</t>
@@ -88,13 +175,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0&quot;pc&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.00&quot;/pc&quot;"/>
-    <numFmt numFmtId="166" formatCode="0&quot;kg&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00&quot;/kg&quot;"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="0 &quot;pc&quot;"/>
+    <numFmt numFmtId="165" formatCode="$0.00 &quot;/pc&quot;"/>
+    <numFmt numFmtId="166" formatCode="General&quot; kg&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00&quot; cbm&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00 &quot;/pc&quot;"/>
+    <numFmt numFmtId="169" formatCode="$0.00 &quot;/kg&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00 &quot;/kg&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -104,9 +194,54 @@
     </font>
     <font>
       <b/>
+      <sz val="24"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFFFFFFF"/>
       <sz val="14"/>
       <name val="Tahoma Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,24 +276,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -184,7 +353,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="821493" cy="533400"/>
@@ -223,7 +392,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="423420" cy="533400"/>
@@ -262,7 +431,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="982410" cy="847725"/>
@@ -622,194 +791,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="9" width="25" customWidth="1"/>
+    <col min="7" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" ht="90" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" ht="90" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2">
-        <f>F2*G2</f>
-      </c>
-      <c r="I2" s="2">
+      <c r="G11" s="13"/>
+      <c r="H11" s="11">
+        <f>F11*G11</f>
+      </c>
+      <c r="I11" s="14">
+        <f>F11*1.50</f>
+      </c>
+      <c r="J11" s="15">
+        <f>F11*0.004000000000000001</f>
+      </c>
+      <c r="K11" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
+    <row r="12" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12">
         <v>6</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2">
-        <f>F3*G3</f>
-      </c>
-      <c r="I3" s="2">
+      <c r="G12" s="13"/>
+      <c r="H12" s="11">
+        <f>F12*G12</f>
+      </c>
+      <c r="I12" s="14">
+        <f>F12*3.50</f>
+      </c>
+      <c r="J12" s="15">
+        <f>F12*0.0075000000000000015</f>
+      </c>
+      <c r="K12" s="16">
         <v>160</v>
       </c>
     </row>
-    <row r="4" ht="66" customHeight="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
+    <row r="13" ht="66" customHeight="1" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2">
-        <f>F4*G4</f>
-      </c>
-      <c r="I4" s="2">
+      <c r="G13" s="13"/>
+      <c r="H13" s="11">
+        <f>F13*G13</f>
+      </c>
+      <c r="I13" s="14">
+        <f>F13*1.00</f>
+      </c>
+      <c r="J13" s="15">
+        <f>F13*0.0002</f>
+      </c>
+      <c r="K13" s="16">
         <v>73</v>
       </c>
     </row>
-    <row r="5" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="14" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F14" s="12">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="2">
-        <f>E5*F5*G5</f>
-      </c>
-      <c r="I5" s="2">
+      <c r="G14" s="17"/>
+      <c r="H14" s="11">
+        <f>E14*F14*G14</f>
+      </c>
+      <c r="I14" s="14">
+        <f>F14*10.00</f>
+      </c>
+      <c r="J14" s="15">
+        <f>F14*0.000375</f>
+      </c>
+      <c r="K14" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="11">
+        <f>E15*F15*G15</f>
+      </c>
+      <c r="I15" s="14">
+        <f>F15*2.50</f>
+      </c>
+      <c r="J15" s="15">
+        <f>F15*0.000375</f>
+      </c>
+      <c r="K15" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
+    <row r="16" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5</v>
+      </c>
+      <c r="F16" s="12">
+        <v>10</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="11">
+        <f>E16*F16*G16</f>
+      </c>
+      <c r="I16" s="14">
+        <f>F16*5.00</f>
+      </c>
+      <c r="J16" s="15">
+        <f>F16*0.000375</f>
+      </c>
+      <c r="K16" s="18">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2">
-        <f>E6*F6*G6</f>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="2">
-        <f>E7*F7*G7</f>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:D9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend-end/src/temp/quote.xlsx
+++ b/backend-end/src/temp/quote.xlsx
@@ -19,7 +19,7 @@
     <t>INVOICE NO:</t>
   </si>
   <si>
-    <t>2WAW9IYQSS8W</t>
+    <t>2WB19CE9PSZK</t>
   </si>
   <si>
     <t>此列使用后需删除</t>
@@ -791,7 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="70" view="pageBreakPreview"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -1193,8 +1199,7 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="70" fitToWidth="1" fitToHeight="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend-end/src/temp/quote.xlsx
+++ b/backend-end/src/temp/quote.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Nantong OK Sporting Co.,ltd</t>
   </si>
@@ -19,7 +19,7 @@
     <t>INVOICE NO:</t>
   </si>
   <si>
-    <t>2WB19CE9PSZK</t>
+    <t>2WEDL5144LXC</t>
   </si>
   <si>
     <t>此列使用后需删除</t>
@@ -34,37 +34,33 @@
     <t>INVOICE DATE:</t>
   </si>
   <si>
-    <t>2025/11/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tel: 0086-0513-81067596
-FAX: 0086-0513-81067595
-Add: 1114, A3 Office Building, Wanda Plaza, No. 8 Shennan Road, Gangzha District, Nantong City</t>
+    <t>2025/11/19</t>
   </si>
   <si>
     <t>TO:</t>
   </si>
   <si>
-    <t xml:space="preserve">Company: Gadolex SA
-Ad.: Isidoro de María 1727
-RUT: 215340610019
-Country : Uruguay
-City : Montevideo
-zip code :11800
-Tel: (598)29243689
-Alejandro Birnbaun Móvil:(598)99638757</t>
+    <t xml:space="preserve">Sold To / Importer:FOCUS COMERCIAL IMPORTADORA E EXPORTADORA LTDA
+RUA LAURO MULLER,NR.567,ROOM 02,CENTER CEP88301-400,ITAJAISC-BRAZI CNP]11.234.477/0001-58</t>
+  </si>
+  <si>
+    <t>Tel: 0086-0513-81067596  FAX: 0086-0513-81067595</t>
   </si>
   <si>
     <t>ATTN:</t>
   </si>
   <si>
-    <t>QUOTE SHEET</t>
+    <t xml:space="preserve">Ship To /Customer:ROPE STORE LTDA
+ADD:RUA JOSE PEREIRA LIBERATO,1710,GALPAO 5,SAO JOAO-CITY:ITAJAI-SC CEP:88.304-401CNPJ:194370650001-27</t>
+  </si>
+  <si>
+    <t>1114, A3 Office Building, Wanda Plaza, No. 8 Shennan Road, Gangzha District, Nantong City</t>
   </si>
   <si>
     <t>TRADE TERM:</t>
   </si>
   <si>
-    <t>FOB Nantong ( Full container )</t>
+    <t>FOB NANTONG</t>
   </si>
   <si>
     <t>PAYMENT TERM:</t>
@@ -73,6 +69,9 @@
     <t>30%+70%T/T</t>
   </si>
   <si>
+    <t>PROFORMA INVOICE</t>
+  </si>
+  <si>
     <t>LOAD PORT:</t>
   </si>
   <si>
@@ -82,19 +81,16 @@
     <t>DESTINATION:</t>
   </si>
   <si>
-    <t>Montevideo Uruguay</t>
+    <t>请填写目的地的</t>
   </si>
   <si>
     <t>PICTURE</t>
   </si>
   <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>SPECIFICATION</t>
+    <t>ITEM No.</t>
+  </si>
+  <si>
+    <t>ITEM NAME</t>
   </si>
   <si>
     <t>Size</t>
@@ -115,13 +111,13 @@
     <t>MEAS.(CBM)</t>
   </si>
   <si>
+    <t>LOGO</t>
+  </si>
+  <si>
     <t>成本(核算)</t>
   </si>
   <si>
     <t>OK1224</t>
-  </si>
-  <si>
-    <t>RBK1224-160-O</t>
   </si>
   <si>
     <t xml:space="preserve">1050D 
@@ -132,18 +128,12 @@
     <t>160*30cm</t>
   </si>
   <si>
-    <t>RBK1224-300-O</t>
-  </si>
-  <si>
     <t>300*30cm</t>
   </si>
   <si>
     <t>OK9100B</t>
   </si>
   <si>
-    <t>RBK9100B</t>
-  </si>
-  <si>
     <t>Power Sled</t>
   </si>
   <si>
@@ -153,38 +143,69 @@
     <t>OK1013</t>
   </si>
   <si>
-    <t>ACT1013-10</t>
-  </si>
-  <si>
-    <t>Rubber Hex Dumbbell 10</t>
-  </si>
-  <si>
-    <t>ACT1013-2.5</t>
-  </si>
-  <si>
-    <t>Rubber Hex Dumbbell 2.5</t>
-  </si>
-  <si>
-    <t>ACT1013-5</t>
-  </si>
-  <si>
-    <t>Rubber Hex Dumbbell 5</t>
+    <t>Rubber Hex Dumbbell</t>
+  </si>
+  <si>
+    <t>FOB PRICE:</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>30% deposite:</t>
+  </si>
+  <si>
+    <t>70% balance:</t>
+  </si>
+  <si>
+    <t>Bank Information:</t>
+  </si>
+  <si>
+    <t>Beneficiary: Nantong OK Sporting Co.,ltd</t>
+  </si>
+  <si>
+    <t>Address: 388 Yonghe road,Nantong,jiangsu,China</t>
+  </si>
+  <si>
+    <t>Bank: BANK OF CHINA,NANTONG CITY,CHONGCHUAN SUB-BRANCH</t>
+  </si>
+  <si>
+    <t>Bank Address: NO.100 YUE LONG ROAD NANTONG</t>
+  </si>
+  <si>
+    <t>SWIFT CODE: BKCHCNBJ95G</t>
+  </si>
+  <si>
+    <t>Account No.: 513165040944</t>
+  </si>
+  <si>
+    <t>Buyers:</t>
+  </si>
+  <si>
+    <t>Sellers:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>AUTHORIZED SIGNATURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="0 &quot;pc&quot;"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="0 &quot;pcs&quot;"/>
     <numFmt numFmtId="165" formatCode="$0.00 &quot;/pc&quot;"/>
-    <numFmt numFmtId="166" formatCode="General&quot; kg&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00&quot; cbm&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="General&quot; kg&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00 &quot;/pc&quot;"/>
     <numFmt numFmtId="169" formatCode="$0.00 &quot;/kg&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00 &quot;/kg&quot;"/>
+    <numFmt numFmtId="171" formatCode="General&quot; cbm&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -194,17 +215,17 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <name val="Tahoma Regular"/>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
@@ -212,36 +233,45 @@
       <sz val="14"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FFFF0000"/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <u/>
+      <color rgb="FF0000ff"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <color rgb="FF00b0f0"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <sz val="22"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
-      <sz val="14"/>
-      <name val="Tahoma Regular"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <name val="Verdana Regular"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color rgb="FFff0000"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,41 +296,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,26 +348,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,11 +409,11 @@
   <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="821493" cy="533400"/>
+    <xdr:ext cx="586780" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -391,11 +448,11 @@
   <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="423420" cy="533400"/>
+    <xdr:ext cx="302443" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2">
@@ -430,11 +487,11 @@
   <xdr:oneCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="982410" cy="847725"/>
+    <xdr:ext cx="717490" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 3">
@@ -794,20 +851,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" view="pageBreakPreview"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="11" width="25" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -843,8 +900,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -859,347 +917,585 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" ht="90" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" ht="81" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" ht="81" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="90" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="8" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="12">
+      <c r="D11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11">
-        <f>F11*G11</f>
-      </c>
-      <c r="I11" s="14">
-        <f>F11*1.50</f>
-      </c>
-      <c r="J11" s="15">
-        <f>F11*0.004000000000000001</f>
-      </c>
-      <c r="K11" s="16">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16">
+        <f>E11*F11</f>
+      </c>
+      <c r="H11" s="17">
+        <f>E11*1.50</f>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="18">
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="11" t="s">
+    <row r="12" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="12">
+      <c r="E12" s="14">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11">
-        <f>F12*G12</f>
-      </c>
-      <c r="I12" s="14">
-        <f>F12*3.50</f>
-      </c>
-      <c r="J12" s="15">
-        <f>F12*0.0075000000000000015</f>
-      </c>
-      <c r="K12" s="16">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16">
+        <f>E12*F12</f>
+      </c>
+      <c r="H12" s="17">
+        <f>E12*3.50</f>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="18">
         <v>160</v>
       </c>
     </row>
-    <row r="13" ht="66" customHeight="1" spans="2:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="13" ht="50" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16">
+        <f>E13*F13</f>
+      </c>
+      <c r="H13" s="17">
+        <f>E13*1.00</f>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="18">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="12">
+      <c r="C14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="16">
+        <f>D14*E14*F14</f>
+      </c>
+      <c r="H14" s="17">
+        <f>E14*10.00</f>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="14">
+        <v>20</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="16">
+        <f>D15*E15*F15</f>
+      </c>
+      <c r="H15" s="17">
+        <f>E15*2.50</f>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="20">
         <v>2</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="11">
-        <f>F13*G13</f>
-      </c>
-      <c r="I13" s="14">
-        <f>F13*1.00</f>
-      </c>
-      <c r="J13" s="15">
-        <f>F13*0.0002</f>
-      </c>
-      <c r="K13" s="16">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>10</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16">
+        <f>D16*E16*F16</f>
+      </c>
+      <c r="H16" s="17">
+        <f>E16*5.00</f>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="16">
+        <v>550</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="14">
-        <v>10</v>
-      </c>
-      <c r="F14" s="12">
-        <v>8</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="11">
-        <f>E14*F14*G14</f>
-      </c>
-      <c r="I14" s="14">
-        <f>F14*10.00</f>
-      </c>
-      <c r="J14" s="15">
-        <f>F14*0.000375</f>
-      </c>
-      <c r="K14" s="18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16">
+        <f>SUM(G11:G17)</f>
+      </c>
+      <c r="H18" s="17">
+        <f>SUM(H11:H17)</f>
+      </c>
+      <c r="I18" s="21">
+        <f>SUM(I11:I17)</f>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="16">
+        <f>G18*0.3</f>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="F15" s="12">
-        <v>20</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="11">
-        <f>E15*F15*G15</f>
-      </c>
-      <c r="I15" s="14">
-        <f>F15*2.50</f>
-      </c>
-      <c r="J15" s="15">
-        <f>F15*0.000375</f>
-      </c>
-      <c r="K15" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="33" customHeight="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="16">
+        <f>G18*0.7</f>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14">
-        <v>5</v>
-      </c>
-      <c r="F16" s="12">
-        <v>10</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="11">
-        <f>E16*F16*G16</f>
-      </c>
-      <c r="I16" s="14">
-        <f>F16*5.00</f>
-      </c>
-      <c r="J16" s="15">
-        <f>F16*0.000375</f>
-      </c>
-      <c r="K16" s="18">
-        <v>2</v>
-      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:D3"/>
+  <mergeCells count="49">
+    <mergeCell ref="A1:D4"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:J5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:D9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A8:D9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageSetup orientation="portrait" scale="70" fitToWidth="1" fitToHeight="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>